--- a/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/230425社員情報登録画面エビデンス.xlsx
+++ b/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/230425社員情報登録画面エビデンス.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c30a1f16d8e11f/ドキュメント/GitHub/2023-04/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731DD3BC-E4F4-4A47-B7B0-B8E833D50151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{731DD3BC-E4F4-4A47-B7B0-B8E833D50151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C448AE-4793-4F24-BE40-861479B16ADA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3D0CE67-07AD-4FD5-9C13-DF41205C8963}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="10740" xr2:uid="{A3D0CE67-07AD-4FD5-9C13-DF41205C8963}"/>
   </bookViews>
   <sheets>
     <sheet name="エビデンス" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>チェックポイント</t>
     <phoneticPr fontId="1"/>
@@ -155,6 +155,137 @@
   </si>
   <si>
     <t>dsadadsa@gmail.com</t>
+  </si>
+  <si>
+    <t>1.画面初期状態</t>
+    <rPh sb="2" eb="8">
+      <t>ガメンショキジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.閉じるボタン押下</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.必須項目のみ入力後登録ボタン押下</t>
+    <rPh sb="2" eb="6">
+      <t>ヒッスコウモク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.日付、年齢、電話番号、メールアドレス(@マークなし)入力後、登録ボタン押下</t>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.日付（2900年）、年齢、メールアドレス（＠マークあり）</t>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.日付（1900年）、年齢、メールアドレス(@マークあり)入力後、登録ボタン押下</t>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.日付（2023年）、年齢、電話番号、メールアドレス（＠マークあり）入力後、登録ボタン押下</t>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.年齢、メールアドレス（＠マークあり）入力後、登録ボタン押下</t>
+    <rPh sb="2" eb="4">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -230,11 +361,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,23 +374,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -287,15 +412,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>103910</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>974082</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>939447</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -318,7 +443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="796637" y="398319"/>
+          <a:off x="1229592" y="2840182"/>
           <a:ext cx="5771218" cy="3377045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -337,7 +462,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1039092</xdr:colOff>
+      <xdr:colOff>1039093</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>230844</xdr:rowOff>
     </xdr:to>
@@ -381,7 +506,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>887490</xdr:colOff>
+      <xdr:colOff>887491</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>144569</xdr:rowOff>
     </xdr:to>
@@ -425,7 +550,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1592836</xdr:colOff>
+      <xdr:colOff>1592837</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>190065</xdr:rowOff>
     </xdr:to>
@@ -469,7 +594,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1567332</xdr:colOff>
+      <xdr:colOff>1567333</xdr:colOff>
       <xdr:row>187</xdr:row>
       <xdr:rowOff>107402</xdr:rowOff>
     </xdr:to>
@@ -513,7 +638,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1665184</xdr:colOff>
+      <xdr:colOff>1665185</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>161091</xdr:rowOff>
     </xdr:to>
@@ -557,7 +682,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1529226</xdr:colOff>
+      <xdr:colOff>1529227</xdr:colOff>
       <xdr:row>128</xdr:row>
       <xdr:rowOff>107403</xdr:rowOff>
     </xdr:to>
@@ -923,6 +1048,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2-23/02/28</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>日付入力</a:t>
           </a:r>
@@ -1285,15 +1414,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76696</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>134834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1777256</xdr:colOff>
+      <xdr:colOff>35875</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>39585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1736436</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>2142</xdr:rowOff>
+      <xdr:rowOff>151821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1316,8 +1445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1237014" y="47049789"/>
-          <a:ext cx="6601606" cy="6413580"/>
+          <a:off x="1328554" y="47678192"/>
+          <a:ext cx="6599132" cy="6480379"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,7 +1748,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1688190</xdr:colOff>
+      <xdr:colOff>1688191</xdr:colOff>
       <xdr:row>244</xdr:row>
       <xdr:rowOff>81181</xdr:rowOff>
     </xdr:to>
@@ -1724,15 +1853,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>247</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1669137</xdr:colOff>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1682745</xdr:colOff>
       <xdr:row>273</xdr:row>
-      <xdr:rowOff>14499</xdr:rowOff>
+      <xdr:rowOff>164177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1755,8 +1884,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680357" y="55108929"/>
-          <a:ext cx="6458851" cy="6382641"/>
+          <a:off x="1306286" y="61749214"/>
+          <a:ext cx="6567709" cy="6382642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1774,7 +1903,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1631032</xdr:colOff>
+      <xdr:colOff>1631033</xdr:colOff>
       <xdr:row>301</xdr:row>
       <xdr:rowOff>33550</xdr:rowOff>
     </xdr:to>
@@ -2169,7 +2298,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1611979</xdr:colOff>
+      <xdr:colOff>1611980</xdr:colOff>
       <xdr:row>329</xdr:row>
       <xdr:rowOff>33551</xdr:rowOff>
     </xdr:to>
@@ -2213,7 +2342,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1678664</xdr:colOff>
+      <xdr:colOff>1678665</xdr:colOff>
       <xdr:row>357</xdr:row>
       <xdr:rowOff>109763</xdr:rowOff>
     </xdr:to>
@@ -2679,7 +2808,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1640558</xdr:colOff>
+      <xdr:colOff>1640559</xdr:colOff>
       <xdr:row>386</xdr:row>
       <xdr:rowOff>62129</xdr:rowOff>
     </xdr:to>
@@ -2936,7 +3065,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1669137</xdr:colOff>
+      <xdr:colOff>1669138</xdr:colOff>
       <xdr:row>414</xdr:row>
       <xdr:rowOff>43078</xdr:rowOff>
     </xdr:to>
@@ -3474,551 +3603,547 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1928037-29BA-4760-8BDF-C1DDFE3C801B}">
   <dimension ref="A1:Q360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H417" sqref="H417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
-        <v>1</v>
+      <c r="A11" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9">
-        <v>2</v>
+      <c r="A27" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A60" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A61" s="1"/>
+      <c r="A60" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="62" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" t="s">
         <v>15</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" t="s">
         <v>16</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" t="s">
         <v>17</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" t="s">
         <v>19</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="O62" t="s">
         <v>18</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="P62" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="Q62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>31</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>45014</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>1</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="1">
         <v>2</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <v>3</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="1">
         <v>9012222222</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="1">
         <v>1</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="3">
         <v>45036.349189814813</v>
       </c>
-      <c r="O63" s="2"/>
-      <c r="P63" s="4">
+      <c r="O63" s="1"/>
+      <c r="P63" s="3">
         <v>45036.349189814813</v>
       </c>
-      <c r="Q63" s="2"/>
+      <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>33</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>45020</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="1">
         <v>1</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="1">
         <v>2</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="1">
         <v>2</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="1">
         <v>9012222222</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="1">
         <v>1</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="3">
         <v>45036.352395833332</v>
       </c>
-      <c r="O64" s="2"/>
-      <c r="P64" s="4">
+      <c r="O64" s="1"/>
+      <c r="P64" s="3">
         <v>45036.352395833332</v>
       </c>
-      <c r="Q64" s="2"/>
+      <c r="Q64" s="1"/>
     </row>
     <row r="65" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>35</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>45021</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>1</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="1">
         <v>4</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="1">
         <v>3</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="1">
         <v>9012222222</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="1">
         <v>1</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="3">
         <v>45036.354479166665</v>
       </c>
-      <c r="O65" s="2"/>
-      <c r="P65" s="4">
+      <c r="O65" s="1"/>
+      <c r="P65" s="3">
         <v>45036.354479166665</v>
       </c>
-      <c r="Q65" s="2"/>
+      <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>37</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>45040</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>1</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="1">
         <v>5</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="1">
         <v>1</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="1">
         <v>9012222222</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="1">
         <v>1</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="3">
         <v>45037.052719907406</v>
       </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="4">
+      <c r="O66" s="1"/>
+      <c r="P66" s="3">
         <v>45037.052719907406</v>
       </c>
-      <c r="Q66" s="2"/>
+      <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>38</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>45021</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <v>1</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="1">
         <v>3</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="1">
         <v>2</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <v>9012222222</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="1">
         <v>1</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="3">
         <v>45037.054756944446</v>
       </c>
-      <c r="O67" s="2"/>
-      <c r="P67" s="4">
+      <c r="O67" s="1"/>
+      <c r="P67" s="3">
         <v>45037.054756944446</v>
       </c>
-      <c r="Q67" s="2"/>
+      <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>40</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>45021</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="1">
         <v>1</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="1">
         <v>1</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="1">
         <v>2</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="1">
         <v>9012222222</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="1">
         <v>1</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N68" s="3">
         <v>45037.070208333331</v>
       </c>
-      <c r="O68" s="2"/>
-      <c r="P68" s="4">
+      <c r="O68" s="1"/>
+      <c r="P68" s="3">
         <v>45037.070208333331</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>41</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>45026</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="1">
         <v>1</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="1">
         <v>1</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="1">
         <v>1</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <v>9012222222</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="1">
         <v>1</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N69" s="3">
         <v>45037.17324074074</v>
       </c>
-      <c r="O69" s="2"/>
-      <c r="P69" s="4">
+      <c r="O69" s="1"/>
+      <c r="P69" s="3">
         <v>45037.17324074074</v>
       </c>
-      <c r="Q69" s="2"/>
+      <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>42</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>45020</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="1">
         <v>1</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="1">
         <v>24</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="1">
         <v>2</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="1">
         <v>9000000000</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="1">
         <v>1</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="3">
         <v>45037.194618055553</v>
       </c>
-      <c r="O70" s="2"/>
-      <c r="P70" s="4">
+      <c r="O70" s="1"/>
+      <c r="P70" s="3">
         <v>45037.194618055553</v>
       </c>
-      <c r="Q70" s="2"/>
+      <c r="Q70" s="1"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A133" s="9">
-        <v>4</v>
+      <c r="A133" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A190" s="9">
-        <v>5</v>
+      <c r="A190" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A247" s="9">
-        <v>6</v>
+      <c r="A247" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A303" s="9">
-        <v>7</v>
+      <c r="A303" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A360" s="9">
-        <v>8</v>
+      <c r="A360" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/230425社員情報登録画面エビデンス.xlsx
+++ b/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/230425社員情報登録画面エビデンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3c30a1f16d8e11f/ドキュメント/GitHub/2023-04/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{731DD3BC-E4F4-4A47-B7B0-B8E833D50151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11DE711F-0939-4760-ADD1-7BF12B2A8F6D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{731DD3BC-E4F4-4A47-B7B0-B8E833D50151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5CB5A95-9A39-4BC1-A54E-93C9C54C7DCE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="10740" xr2:uid="{A3D0CE67-07AD-4FD5-9C13-DF41205C8963}"/>
   </bookViews>
@@ -16,14 +16,15 @@
     <sheet name="エビデンス" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="チェックポイント1">エビデンス!$A$18:$K$34</definedName>
-    <definedName name="チェックポイント2">エビデンス!$A$35:$K$67</definedName>
-    <definedName name="チェックポイント3">エビデンス!$A$68:$K$129</definedName>
-    <definedName name="チェックポイント4">エビデンス!$A$130:$K$186</definedName>
-    <definedName name="チェックポイント5">エビデンス!$A$187:$K$243</definedName>
-    <definedName name="チェックポイント6">エビデンス!$A$244:$K$299</definedName>
-    <definedName name="チェックポイント7">エビデンス!$A$300:$K$356</definedName>
-    <definedName name="チェックポイント8">エビデンス!$A$357:$K$413</definedName>
+    <definedName name="チェックポイント1">エビデンス!$A$19:$K$35</definedName>
+    <definedName name="チェックポイント2">エビデンス!$A$36:$K$68</definedName>
+    <definedName name="チェックポイント3">エビデンス!$A$69:$K$130</definedName>
+    <definedName name="チェックポイント4">エビデンス!$A$131:$K$187</definedName>
+    <definedName name="チェックポイント5">エビデンス!$A$188:$K$244</definedName>
+    <definedName name="チェックポイント6">エビデンス!$A$245:$K$300</definedName>
+    <definedName name="チェックポイント7">エビデンス!$A$301:$K$357</definedName>
+    <definedName name="チェックポイント8">エビデンス!$A$358:$K$414</definedName>
+    <definedName name="チェックポイント9">エビデンス!$A$415:$K$473</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>チェックポイント</t>
     <phoneticPr fontId="1"/>
@@ -214,6 +215,44 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>9.入社年月日(2023/02/21)、氏名漢字、氏名カナ、性別、年齢、所属、電話番号、メールアドレス入力後、登録ボタン押下</t>
+    <rPh sb="2" eb="7">
+      <t>ニュウシャネンガッピ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>シメイカンジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.入社年月日(2023/02/21)、氏名漢字、氏名カナ、性別、年齢、所属、電話番号、メールアドレス入力後、登録ボタン押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -334,13 +373,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50935</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>573726</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>144569</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -356,8 +395,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1418053" y="8409415"/>
-          <a:ext cx="5767144" cy="3277213"/>
+          <a:off x="1418053" y="8644739"/>
+          <a:ext cx="5767144" cy="3277212"/>
           <a:chOff x="891377" y="8409415"/>
           <a:chExt cx="5767144" cy="3277213"/>
         </a:xfrm>
@@ -450,13 +489,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>58067</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>12225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>432538</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>138679</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -472,8 +511,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1425185" y="16260754"/>
-          <a:ext cx="6492882" cy="6244866"/>
+          <a:off x="1425185" y="16496078"/>
+          <a:ext cx="7983265" cy="6244866"/>
           <a:chOff x="943332" y="16283166"/>
           <a:chExt cx="6492883" cy="6244866"/>
         </a:xfrm>
@@ -622,13 +661,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>627529</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>107403</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -644,8 +683,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1367118" y="23308235"/>
-          <a:ext cx="6745940" cy="6225815"/>
+          <a:off x="1367118" y="23543559"/>
+          <a:ext cx="8236323" cy="6225815"/>
           <a:chOff x="874059" y="23308235"/>
           <a:chExt cx="6745941" cy="6225815"/>
         </a:xfrm>
@@ -738,13 +777,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371396</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>190064</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -760,8 +799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1394333" y="30630480"/>
-          <a:ext cx="6462592" cy="6281260"/>
+          <a:off x="1394333" y="30865803"/>
+          <a:ext cx="7952975" cy="6281261"/>
           <a:chOff x="901274" y="30630480"/>
           <a:chExt cx="6462593" cy="6281260"/>
         </a:xfrm>
@@ -1082,13 +1121,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>345892</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>107401</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1104,8 +1143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1367118" y="37192324"/>
-          <a:ext cx="6464303" cy="6225812"/>
+          <a:off x="1367118" y="37427647"/>
+          <a:ext cx="7954686" cy="6225813"/>
           <a:chOff x="874059" y="37192324"/>
           <a:chExt cx="6464304" cy="6225812"/>
         </a:xfrm>
@@ -1198,13 +1237,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35875</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>39585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514995</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>151821</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1220,8 +1259,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1402993" y="44056291"/>
-          <a:ext cx="6597531" cy="6230648"/>
+          <a:off x="1402993" y="44291614"/>
+          <a:ext cx="8087914" cy="6230648"/>
           <a:chOff x="909934" y="44056291"/>
           <a:chExt cx="6597532" cy="6230648"/>
         </a:xfrm>
@@ -1486,13 +1525,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466750</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>81181</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1508,8 +1547,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1367118" y="50605765"/>
-          <a:ext cx="6585161" cy="6199592"/>
+          <a:off x="1367118" y="50841088"/>
+          <a:ext cx="8075544" cy="6199593"/>
           <a:chOff x="874059" y="50605765"/>
           <a:chExt cx="6585162" cy="6199592"/>
         </a:xfrm>
@@ -1602,13 +1641,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>461304</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>164177</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1624,8 +1663,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1380725" y="57579825"/>
-          <a:ext cx="6566108" cy="6132911"/>
+          <a:off x="1380725" y="57815149"/>
+          <a:ext cx="8056491" cy="6132910"/>
           <a:chOff x="887666" y="57579825"/>
           <a:chExt cx="6566109" cy="6132911"/>
         </a:xfrm>
@@ -1890,13 +1929,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409592</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>33550</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1912,8 +1951,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1367118" y="64019206"/>
-          <a:ext cx="6528003" cy="6151962"/>
+          <a:off x="1367118" y="64254529"/>
+          <a:ext cx="8018386" cy="6151962"/>
           <a:chOff x="874059" y="64019206"/>
           <a:chExt cx="6528004" cy="6151962"/>
         </a:xfrm>
@@ -2005,22 +2044,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>457224</xdr:colOff>
-      <xdr:row>354</xdr:row>
-      <xdr:rowOff>109763</xdr:rowOff>
+      <xdr:colOff>445305</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>89580</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="65" name="グループ化 64">
+        <xdr:cNvPr id="124" name="グループ化 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CA8619-8C45-91B7-3B2E-4C9542963A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E715BF30-8E10-74DE-4EBF-FA1F638DDBED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,18 +2067,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1367118" y="70608265"/>
-          <a:ext cx="6575635" cy="12817233"/>
-          <a:chOff x="874059" y="70608265"/>
-          <a:chExt cx="6575636" cy="12817233"/>
+          <a:off x="1411942" y="70899618"/>
+          <a:ext cx="8009275" cy="6151962"/>
+          <a:chOff x="1165412" y="70888412"/>
+          <a:chExt cx="8009275" cy="6151962"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="40" name="図 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F9E55E-AC4A-3DA0-899A-240F5CCFCAC0}"/>
+          <xdr:cNvPr id="39" name="図 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85511D85-B96C-FC79-780C-43E2020A6EC7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2055,349 +2094,20 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="874059" y="77197324"/>
-            <a:ext cx="6575636" cy="6228174"/>
+            <a:off x="1165412" y="70888412"/>
+            <a:ext cx="7984219" cy="6151962"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="64" name="グループ化 63">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733B0456-0584-94DD-B6F3-D0D060094532}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="874059" y="70608265"/>
-            <a:ext cx="6508951" cy="6151962"/>
-            <a:chOff x="874059" y="70608265"/>
-            <a:chExt cx="6508951" cy="6151962"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="39" name="図 38">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85511D85-B96C-FC79-780C-43E2020A6EC7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="874059" y="70608265"/>
-              <a:ext cx="6508951" cy="6151962"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="吹き出し: 四角形 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654670DA-4004-44E5-9000-297D6BF7DDF3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5350692" y="71326679"/>
-              <a:ext cx="1507308" cy="378744"/>
-            </a:xfrm>
-            <a:prstGeom prst="wedgeRectCallout">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -88514"/>
-                <a:gd name="adj2" fmla="val 137068"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>2023/02/21</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>　入力</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="吹き出し: 四角形 41">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE699B04-F85E-4300-9880-5A2B2F7A8C78}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5191334" y="73134757"/>
-              <a:ext cx="1106372" cy="371613"/>
-            </a:xfrm>
-            <a:prstGeom prst="wedgeRectCallout">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -88514"/>
-                <a:gd name="adj2" fmla="val 137068"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>年齢</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>10</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>歳入力</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="吹き出し: 四角形 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5851D837-EFC2-4420-BB7E-ABE2599A80CE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5346534" y="73979704"/>
-              <a:ext cx="1690760" cy="375989"/>
-            </a:xfrm>
-            <a:prstGeom prst="wedgeRectCallout">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -88514"/>
-                <a:gd name="adj2" fmla="val 137068"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>12345678901</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>　入力</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="吹き出し: 四角形 43">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0363E7CA-F1E8-4DA4-BD2A-47A1405400D1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5652568" y="74457773"/>
-              <a:ext cx="1586432" cy="375991"/>
-            </a:xfrm>
-            <a:prstGeom prst="wedgeRectCallout">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -88514"/>
-                <a:gd name="adj2" fmla="val 137068"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>NTS@gmail.com</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>　入力</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="吹き出し: 四角形 44">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE435272-1BD5-461E-89AC-F4944975D429}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5556314" y="75142575"/>
-              <a:ext cx="482079" cy="378743"/>
-            </a:xfrm>
-            <a:prstGeom prst="wedgeRectCallout">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val -103608"/>
-                <a:gd name="adj2" fmla="val 98085"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>押下</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="吹き出し: 四角形 46">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055BF685-528F-4A37-A53F-4545D127BE7B}"/>
+          <xdr:cNvPr id="41" name="吹き出し: 四角形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654670DA-4004-44E5-9000-297D6BF7DDF3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2405,13 +2115,13 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2758248" y="78815847"/>
-            <a:ext cx="2270137" cy="332316"/>
+            <a:off x="6858390" y="71562002"/>
+            <a:ext cx="1848943" cy="378744"/>
           </a:xfrm>
           <a:prstGeom prst="wedgeRectCallout">
             <a:avLst>
-              <a:gd name="adj1" fmla="val -74107"/>
-              <a:gd name="adj2" fmla="val -104627"/>
+              <a:gd name="adj1" fmla="val -88514"/>
+              <a:gd name="adj2" fmla="val 137068"/>
             </a:avLst>
           </a:prstGeom>
           <a:solidFill>
@@ -2438,6 +2148,350 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>2023/02/21</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="吹き出し: 四角形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE699B04-F85E-4300-9880-5A2B2F7A8C78}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6662913" y="73370080"/>
+            <a:ext cx="1357134" cy="371613"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -88514"/>
+              <a:gd name="adj2" fmla="val 137068"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>年齢</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>歳入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="吹き出し: 四角形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5851D837-EFC2-4420-BB7E-ABE2599A80CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6853289" y="74215027"/>
+            <a:ext cx="2073974" cy="375989"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -88514"/>
+              <a:gd name="adj2" fmla="val 137068"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>12345678901</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="吹き出し: 四角形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0363E7CA-F1E8-4DA4-BD2A-47A1405400D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7228687" y="74693096"/>
+            <a:ext cx="1946000" cy="375991"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -88514"/>
+              <a:gd name="adj2" fmla="val 137068"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>NTS@gmail.com</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="吹き出し: 四角形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE435272-1BD5-461E-89AC-F4944975D429}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7110616" y="75377898"/>
+            <a:ext cx="591343" cy="378743"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -103608"/>
+              <a:gd name="adj2" fmla="val 98085"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>479636</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>143381</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="123" name="グループ化 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A65E88-7A12-1723-3137-ED09F872F2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1389530" y="77466266"/>
+          <a:ext cx="8066018" cy="6228174"/>
+          <a:chOff x="1367118" y="77432648"/>
+          <a:chExt cx="8066018" cy="6228174"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="40" name="図 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F9E55E-AC4A-3DA0-899A-240F5CCFCAC0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1367118" y="77432648"/>
+            <a:ext cx="8066018" cy="6228174"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="吹き出し: 四角形 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055BF685-528F-4A37-A53F-4545D127BE7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3678362" y="79051171"/>
+            <a:ext cx="2784668" cy="332316"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -74107"/>
+              <a:gd name="adj2" fmla="val -104627"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>登録失敗画面</a:t>
             </a:r>
@@ -2451,13 +2505,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>358</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419118</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>384</xdr:row>
       <xdr:rowOff>62130</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2473,8 +2527,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1367118" y="84021706"/>
-          <a:ext cx="6537529" cy="6180542"/>
+          <a:off x="1367118" y="84257029"/>
+          <a:ext cx="8027912" cy="6180542"/>
           <a:chOff x="874059" y="84021706"/>
           <a:chExt cx="6537530" cy="6180542"/>
         </a:xfrm>
@@ -2682,130 +2736,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>385</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447697</xdr:colOff>
-      <xdr:row>411</xdr:row>
-      <xdr:rowOff>43079</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="67" name="グループ化 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BCFEB4-C386-7F80-223F-8F67C4EA7500}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1367118" y="90610765"/>
-          <a:ext cx="6566108" cy="6161490"/>
-          <a:chOff x="874059" y="90610765"/>
-          <a:chExt cx="6566109" cy="6161490"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="54" name="図 53">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126FFFFE-0437-A17C-6EFB-BB508CB7DE14}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="874059" y="90610765"/>
-            <a:ext cx="6566109" cy="6161490"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="吹き出し: 四角形 54">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E170782E-8522-47F6-A328-865F0C28B3D4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2628994" y="91961800"/>
-            <a:ext cx="2218785" cy="332317"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -74107"/>
-              <a:gd name="adj2" fmla="val -104627"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>登録失敗画面</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>69274</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>592065</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>155863</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2821,8 +2759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1436392" y="4655535"/>
-          <a:ext cx="5767144" cy="3277210"/>
+          <a:off x="1436392" y="4890858"/>
+          <a:ext cx="5767144" cy="3277211"/>
           <a:chOff x="943333" y="4655535"/>
           <a:chExt cx="5767144" cy="3277210"/>
         </a:xfrm>
@@ -2915,13 +2853,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>51956</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>111333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>230844</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2937,8 +2875,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1419074" y="11888715"/>
-          <a:ext cx="6077660" cy="3414041"/>
+          <a:off x="1419074" y="12124039"/>
+          <a:ext cx="7568043" cy="3414040"/>
           <a:chOff x="926015" y="11888715"/>
           <a:chExt cx="6077661" cy="3414041"/>
         </a:xfrm>
@@ -2949,6 +2887,122 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0070EDCA-5C45-C22D-A9E4-D10D6DA189A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="926015" y="12038239"/>
+            <a:ext cx="5884108" cy="3264517"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="吹き出し: 四角形 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBCA259-39B0-4513-A44F-7D3E1C460159}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5841829" y="11888715"/>
+            <a:ext cx="1161847" cy="297174"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -80815"/>
+              <a:gd name="adj2" fmla="val 193252"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>一覧画面へ遷移</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1529944</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>95590</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="130" name="グループ化 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5569B52-807E-1EC1-58BD-8C5F6EE356A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1367118" y="97905794"/>
+          <a:ext cx="6774297" cy="6449325"/>
+          <a:chOff x="1367118" y="97905794"/>
+          <a:chExt cx="6774297" cy="6449325"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="94" name="図 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6171F6E7-9BC1-37AB-3C6D-82358D7B514A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2964,8 +3018,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="926015" y="12038239"/>
-            <a:ext cx="5884108" cy="3264517"/>
+            <a:off x="1367118" y="97905794"/>
+            <a:ext cx="6477904" cy="6449325"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2974,10 +3028,10 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="吹き出し: 四角形 56">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBCA259-39B0-4513-A44F-7D3E1C460159}"/>
+          <xdr:cNvPr id="95" name="吹き出し: 四角形 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AA42D9-2609-62DB-E44C-9E68A3CEB329}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2985,13 +3039,868 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5841829" y="11888715"/>
-            <a:ext cx="1161847" cy="297174"/>
+            <a:off x="5729207" y="98959147"/>
+            <a:ext cx="2412208" cy="291352"/>
           </a:xfrm>
           <a:prstGeom prst="wedgeRectCallout">
             <a:avLst>
-              <a:gd name="adj1" fmla="val -80815"/>
-              <a:gd name="adj2" fmla="val 193252"/>
+              <a:gd name="adj1" fmla="val -54814"/>
+              <a:gd name="adj2" fmla="val 92287"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>入社年月日</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(2023/04/01)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="吹き出し: 四角形 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDFCA95-9A41-2F35-A808-583ABB22572B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5784344" y="99922852"/>
+            <a:ext cx="1309484" cy="313765"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -54814"/>
+              <a:gd name="adj2" fmla="val 92287"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>氏名カナ入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="吹き出し: 四角形 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9DF16C-F7E5-BB7B-3536-DA4E32C3C94A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6253001" y="102186441"/>
+            <a:ext cx="1723005" cy="280146"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -54814"/>
+              <a:gd name="adj2" fmla="val 92287"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>nts@gmail.com</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="吹き出し: 四角形 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2751810F-C00E-C0FB-8720-A42449D8ADAF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5701640" y="101659764"/>
+            <a:ext cx="1585165" cy="324970"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -54814"/>
+              <a:gd name="adj2" fmla="val 92287"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>12345678901</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="吹き出し: 四角形 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DFF62C-0D15-ACDA-EBC4-F4A747B22885}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5770559" y="99429794"/>
+            <a:ext cx="1378405" cy="280147"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -54814"/>
+              <a:gd name="adj2" fmla="val 92287"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>氏名漢字入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="吹き出し: 四角形 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6581D7B9-0C2A-EBC1-3C33-582B3CA0537F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6377056" y="100371087"/>
+            <a:ext cx="1130292" cy="291354"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -137741"/>
+              <a:gd name="adj2" fmla="val 84595"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>性別選択</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="吹き出し: 四角形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A851555-ADFB-5B70-72B5-3A9648C8F9FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5453527" y="101245147"/>
+            <a:ext cx="1102724" cy="302559"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -54814"/>
+              <a:gd name="adj2" fmla="val 92287"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>所属選択</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="吹き出し: 四角形 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BA38C9-31EF-7A49-989E-62E88C6EED03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6473547" y="102724323"/>
+            <a:ext cx="620282" cy="291353"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -54814"/>
+              <a:gd name="adj2" fmla="val 92287"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="吹き出し: 四角形 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27043B7-576E-4489-9688-7F866F6E3A9C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5165912" y="100830529"/>
+            <a:ext cx="918882" cy="291352"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -54814"/>
+              <a:gd name="adj2" fmla="val 92287"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>20</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>歳入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45792</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>214490</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="107" name="グループ化 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D166E69-2CB8-A6DF-1A72-B1F924809636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1412910" y="2409266"/>
+          <a:ext cx="11216119" cy="1816930"/>
+          <a:chOff x="2033098" y="2625655"/>
+          <a:chExt cx="11212642" cy="1825046"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="105" name="図 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870B89EB-DA23-7D23-4CDF-DF07BA43B0E1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10400605" y="2625655"/>
+            <a:ext cx="2845135" cy="1825046"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="106" name="図 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEA7C0D-9890-9B01-BDB5-BDE7FC5DFD85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2033098" y="2627588"/>
+            <a:ext cx="8359007" cy="1819004"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1268848</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>70369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="図 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CFDDE4-B802-41F3-936D-458BA878AB18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:srcRect r="-563" b="-563"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1411941" y="104752588"/>
+          <a:ext cx="6468378" cy="6401693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1155311</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>170114</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="111" name="グループ化 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7082DB98-3373-B696-73EE-9ADF200E7BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1423147" y="111599383"/>
+          <a:ext cx="15397988" cy="2478525"/>
+          <a:chOff x="1367118" y="106612765"/>
+          <a:chExt cx="15397988" cy="2478525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="109" name="図 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1815B73-56A9-288D-5E74-E6E499E7D456}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1367118" y="106612765"/>
+            <a:ext cx="11460174" cy="2467319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="110" name="図 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293DCBAD-F0BB-DD76-B415-278CE3F3EA43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12830732" y="106623971"/>
+            <a:ext cx="3934374" cy="2467319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457224</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>109763</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="125" name="グループ化 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCAB076-BB3F-4495-A438-8C788CA346ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1367118" y="90610765"/>
+          <a:ext cx="8066018" cy="6228174"/>
+          <a:chOff x="1367118" y="77432648"/>
+          <a:chExt cx="8066018" cy="6228174"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="126" name="図 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007F8549-A9D0-EA8D-93B9-D75D052F0660}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1367118" y="77432648"/>
+            <a:ext cx="8066018" cy="6228174"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="127" name="吹き出し: 四角形 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767E1D41-7E92-42F5-E382-7560E5221865}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3678362" y="79051171"/>
+            <a:ext cx="2784668" cy="332316"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -74107"/>
+              <a:gd name="adj2" fmla="val -104627"/>
             </a:avLst>
           </a:prstGeom>
           <a:solidFill>
@@ -3019,7 +3928,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>一覧画面へ遷移</a:t>
+              <a:t>登録失敗画面</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3029,101 +3938,222 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22732</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>154181</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>78439</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="吹き出し: 四角形 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C19F63A-E45F-D947-3177-AC43A6EDB72C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E27A82A-E96F-4A0F-98EC-01F958BFA55B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1434354" y="2151850"/>
-          <a:ext cx="9827558" cy="1803826"/>
-          <a:chOff x="3348208" y="2074108"/>
-          <a:chExt cx="12094199" cy="1965512"/>
+          <a:off x="4168588" y="105234440"/>
+          <a:ext cx="1723005" cy="280146"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B99C1BF-E237-EEAC-DB28-CB4ACB460825}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3348208" y="2080191"/>
-            <a:ext cx="9000665" cy="1959429"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="図 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6641A6B4-C06C-069F-46DF-4741F5842526}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12351244" y="2074108"/>
-            <a:ext cx="3091163" cy="1942618"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54814"/>
+            <a:gd name="adj2" fmla="val 92287"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一覧画面へ遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392207</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="吹き出し: 四角形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2EC0B8D-C90F-4311-BF82-D92979C0574C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5255560" y="113336295"/>
+          <a:ext cx="806823" cy="280146"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54814"/>
+            <a:gd name="adj2" fmla="val 92287"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録成功</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1154205</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="正方形/長方形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4874955F-F691-5EBC-1F81-6D68974FF0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1411941" y="113728500"/>
+          <a:ext cx="15408088" cy="212912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3424,16 +4454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1928037-29BA-4760-8BDF-C1DDFE3C801B}">
-  <dimension ref="A1:I357"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L428" sqref="L428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.875" style="3" customWidth="1"/>
-    <col min="2" max="12" width="11.5" customWidth="1"/>
+    <col min="2" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.75" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="16.25" bestFit="1" customWidth="1"/>
@@ -3532,15 +4564,23 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -3550,7 +4590,7 @@
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
@@ -3562,52 +4602,61 @@
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A187" s="3" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A188" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A244" s="3" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A245" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A300" s="3" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A301" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A357" s="3" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A358" s="3" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A415" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B1:H1"/>
@@ -3627,6 +4676,7 @@
     <hyperlink ref="B6" location="チェックポイント6" display="6.日付（2900年）、年齢、メールアドレス（＠マークあり）" xr:uid="{E204C936-01E0-4FF7-BB23-5B393CE6FED8}"/>
     <hyperlink ref="B7" location="チェックポイント7" display="7.日付（2023年）、年齢、電話番号、メールアドレス（＠マークあり）入力後、登録ボタン押下" xr:uid="{0EF44D06-0782-4FF4-B6D4-67898C111C01}"/>
     <hyperlink ref="B8" location="チェックポイント8" display="8.年齢、メールアドレス（＠マークあり）入力後、登録ボタン押下" xr:uid="{98819A6D-9E81-428E-A411-6520BD0DE146}"/>
+    <hyperlink ref="B9:H9" location="チェックポイント9" display="9.入社年月日(2023/02/21)、氏名漢字、氏名カナ、性別、年齢、所属、電話番号、メールアドレス入力後、登録ボタン押下" xr:uid="{BCB2FE0C-AD55-4E8B-8F60-E04051805F62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
